--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,13 +743,13 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,13 +790,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -801,11 +807,11 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -845,11 +854,11 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,16 +893,17 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -898,14 +911,14 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -920,13 +933,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,11 +997,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -993,28 +1012,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
       </c>
       <c r="G21" s="3">
         <v>-400</v>
       </c>
       <c r="H21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,14 +1314,14 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1290,72 +1329,78 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,22 +1631,25 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
@@ -1597,12 +1657,12 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,23 +2052,24 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1994,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,29 +2109,29 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
+        <v>300</v>
+      </c>
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>400</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,14 +2156,14 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2084,8 +2176,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2125,11 +2220,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2143,13 +2238,16 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2158,7 +2256,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,34 +2297,34 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,34 +2673,34 @@
         <v>700</v>
       </c>
       <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -2663,37 +2793,40 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -2702,74 +2835,80 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2778,25 +2917,28 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2854,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -2880,11 +3025,14 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>500</v>
       </c>
       <c r="F76" s="3">
         <v>500</v>
       </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>200</v>
-      </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,8 +4185,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,26 +4327,26 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>100</v>
-      </c>
       <c r="H94" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,23 +4660,26 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4439,21 +4690,24 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,10 +751,10 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -755,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -781,28 +789,34 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -810,14 +824,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -828,13 +842,19 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -843,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -857,14 +877,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,37 +920,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -936,13 +964,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,14 +1040,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1015,28 +1055,34 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-2600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>-500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
       <c r="F18" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,140 +1341,158 @@
         <v>-600</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-400</v>
       </c>
       <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
       </c>
       <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
       </c>
       <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,19 +1750,25 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1654,21 +1776,21 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
       </c>
       <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
       </c>
       <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,29 +2225,31 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2083,61 +2257,67 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
       </c>
       <c r="F42" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G42" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H42" s="3">
         <v>500</v>
       </c>
       <c r="I42" s="3">
+        <v>400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>500</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>400</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2147,28 +2327,34 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2179,11 +2365,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2194,13 +2380,19 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2209,13 +2401,13 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2223,14 +2415,14 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2241,28 +2433,34 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2288,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,31 +2804,37 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +3009,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2767,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2782,10 +3044,10 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -2796,149 +3058,173 @@
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3002,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3028,11 +3320,17 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-56800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-56100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-55500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-54500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-54400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-54000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-55000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-54100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,46 +3995,52 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
       </c>
       <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4188,11 +4630,11 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,13 +4769,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4330,29 +4790,29 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
-        <v>100</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>400</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
-        <v>100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,29 +5161,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4693,21 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,22 +755,22 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -795,31 +799,34 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -830,11 +837,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -848,16 +855,19 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -869,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -883,11 +893,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,14 +947,14 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -948,14 +962,14 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -970,13 +984,16 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,11 +1066,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1061,28 +1081,31 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,54 +1325,57 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-600</v>
@@ -1347,46 +1384,49 @@
         <v>-600</v>
       </c>
       <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,23 +1434,23 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1418,81 +1458,87 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-900</v>
       </c>
       <c r="F23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-900</v>
       </c>
       <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-900</v>
       </c>
       <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,16 +1814,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1773,14 +1834,14 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1788,12 +1849,12 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,102 +1997,108 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-900</v>
       </c>
       <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-900</v>
       </c>
       <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,20 +2326,20 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2263,16 +2350,16 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2280,16 +2367,19 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>600</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>300</v>
@@ -2298,29 +2388,29 @@
         <v>300</v>
       </c>
       <c r="H42" s="3">
+        <v>300</v>
+      </c>
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>400</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2371,8 +2464,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2386,17 +2479,20 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
@@ -2407,10 +2503,10 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2421,11 +2517,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,13 +2547,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2463,7 +2562,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2492,16 +2591,19 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
@@ -2510,34 +2612,34 @@
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2836,8 +2956,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,52 +3039,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>700</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
       </c>
       <c r="H54" s="3">
+        <v>700</v>
+      </c>
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,7 +3154,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3035,22 +3166,22 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3064,46 +3195,49 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -3112,92 +3246,98 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3206,25 +3346,28 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3300,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3326,11 +3472,14 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
       </c>
       <c r="K66" s="3">
+        <v>500</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-58500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>500</v>
       </c>
       <c r="I76" s="3">
         <v>500</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-900</v>
       </c>
       <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,8 +4857,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,17 +5002,20 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4796,26 +5026,26 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
-        <v>100</v>
-      </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,23 +5428,23 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5203,21 +5455,24 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,22 +761,22 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -802,34 +805,37 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -840,11 +846,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -858,19 +864,22 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -882,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -896,11 +905,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,14 +963,14 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -965,14 +978,14 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -987,13 +1000,16 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
-      </c>
-      <c r="T12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1064,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1069,11 +1088,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1084,28 +1103,31 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,57 +1361,60 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>-600</v>
@@ -1387,46 +1423,49 @@
         <v>-600</v>
       </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,23 +1476,23 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1461,84 +1500,90 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-900</v>
       </c>
       <c r="G23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-900</v>
       </c>
       <c r="G26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-900</v>
       </c>
       <c r="G27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1828,8 +1888,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1837,14 +1897,14 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1852,12 +1912,12 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,105 +2069,111 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-900</v>
       </c>
       <c r="G33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-900</v>
       </c>
       <c r="G35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2399,14 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2329,20 +2415,20 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2353,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,19 +2456,22 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>300</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
@@ -2391,29 +2480,29 @@
         <v>300</v>
       </c>
       <c r="I42" s="3">
+        <v>300</v>
+      </c>
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>400</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,20 +2533,20 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2467,8 +2559,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2482,20 +2574,23 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
@@ -2506,10 +2601,10 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2520,11 +2615,11 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2538,25 +2633,28 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2565,7 +2663,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2594,19 +2692,22 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
@@ -2615,34 +2716,34 @@
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,8 +3060,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3078,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,55 +3164,58 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>700</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
       </c>
       <c r="I54" s="3">
+        <v>700</v>
+      </c>
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3157,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3169,22 +3299,22 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,40 +3340,40 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -3249,98 +3382,104 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3349,25 +3488,28 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3449,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3475,11 +3620,14 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,55 +4130,58 @@
         <v>-60100</v>
       </c>
       <c r="E72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-59500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-58500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-900</v>
       </c>
       <c r="G81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,28 +5056,29 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,20 +5231,23 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5029,26 +5258,26 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,35 +5667,38 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5458,21 +5709,24 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,22 +768,22 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,28 +824,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -849,11 +856,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,13 +886,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -894,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -908,11 +918,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -966,8 +980,8 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -981,14 +995,14 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1003,13 +1017,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
-      </c>
-      <c r="U12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1094,7 +1114,7 @@
         <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1106,28 +1126,31 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1364,60 +1398,63 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-200</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-600</v>
@@ -1426,51 +1463,54 @@
         <v>-600</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1479,23 +1519,23 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1503,87 +1543,93 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-900</v>
       </c>
       <c r="G23" s="3">
         <v>-900</v>
       </c>
       <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-900</v>
       </c>
       <c r="G26" s="3">
         <v>-900</v>
       </c>
       <c r="H26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-900</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
       </c>
       <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1891,8 +1952,8 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1900,14 +1961,14 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1915,12 +1976,12 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,17 +2121,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2072,108 +2142,114 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-900</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
       </c>
       <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-900</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
       </c>
       <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,17 +2486,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2418,20 +2505,20 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2442,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2459,22 +2546,25 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>300</v>
       </c>
       <c r="H42" s="3">
         <v>300</v>
@@ -2483,29 +2573,29 @@
         <v>300</v>
       </c>
       <c r="J42" s="3">
+        <v>300</v>
+      </c>
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>400</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2536,20 +2629,20 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2562,8 +2655,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,14 +2682,14 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -2604,10 +2700,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2618,11 +2714,11 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2636,28 +2732,31 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2666,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2695,22 +2794,25 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
@@ -2719,34 +2821,34 @@
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3063,8 +3183,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3081,8 +3201,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,58 +3290,61 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,13 +3402,14 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3290,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3302,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3331,52 +3462,55 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
@@ -3385,104 +3519,110 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3491,25 +3631,28 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,13 +3710,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3597,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3623,11 +3769,14 @@
       <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>1000</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60100</v>
+        <v>-62100</v>
       </c>
       <c r="E72" s="3">
         <v>-60100</v>
       </c>
       <c r="F72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-59500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-58500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-57600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-54100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-53900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>500</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-900</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
       </c>
       <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,31 +5277,32 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,23 +5461,26 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5261,26 +5491,26 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
-        <v>100</v>
-      </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,58 +5807,61 @@
         <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>700</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,38 +5919,41 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-400</v>
       </c>
       <c r="K102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5712,21 +5964,24 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +770,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -771,16 +779,16 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -789,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -815,43 +823,49 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -859,14 +873,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -877,19 +891,25 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -898,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -907,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -921,14 +941,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,53 +989,55 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
@@ -1020,13 +1048,19 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
-      </c>
-      <c r="V12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,22 +1121,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1111,17 +1151,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1129,28 +1169,34 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-2600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,19 +1284,21 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
@@ -1253,111 +1307,123 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>-500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>-2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,256 +1446,282 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,17 +2077,17 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1973,21 +2095,21 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,35 +2670,35 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2532,76 +2706,82 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F42" s="3">
         <v>1600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>300</v>
-      </c>
-      <c r="I42" s="3">
-        <v>300</v>
       </c>
       <c r="J42" s="3">
         <v>300</v>
       </c>
       <c r="K42" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L42" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M42" s="3">
         <v>500</v>
       </c>
       <c r="N42" s="3">
+        <v>400</v>
+      </c>
+      <c r="O42" s="3">
+        <v>500</v>
+      </c>
+      <c r="P42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>400</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,23 +2818,23 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2658,11 +2844,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2673,28 +2859,34 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2703,13 +2895,13 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2717,14 +2909,14 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -2735,43 +2927,49 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2797,70 +2995,82 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
       </c>
       <c r="J46" s="3">
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,10 +3146,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3186,11 +3426,11 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3204,11 +3444,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,20 +3663,22 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
@@ -3424,10 +3686,10 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3436,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3451,10 +3713,10 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3465,194 +3727,218 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>600</v>
       </c>
       <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
+        <v>600</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,10 +4014,10 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3746,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3772,11 +4064,17 @@
       <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-60100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-60100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-59500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-58500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-57600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-56800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-56100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-55500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-54900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-54200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-54000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-55600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-55000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-54100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-53900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
-        <v>100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5718,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5304,11 +5746,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,28 +5918,34 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5494,29 +5954,29 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
-      </c>
       <c r="S100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,44 +6420,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5967,21 +6471,27 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAUG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>TAUG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,10 +773,10 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -785,22 +788,22 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -829,16 +832,19 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -847,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -879,11 +885,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -897,31 +903,34 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -933,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -947,11 +956,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,23 +1003,24 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
@@ -1017,12 +1030,12 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -1032,14 +1045,14 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1054,13 +1067,16 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
-      </c>
-      <c r="X12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1157,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1175,28 +1194,31 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,17 +1490,17 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1475,69 +1508,72 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>400</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
@@ -1546,60 +1582,63 @@
         <v>-600</v>
       </c>
       <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1608,23 +1647,23 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1632,96 +1671,102 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-900</v>
       </c>
       <c r="K23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-900</v>
       </c>
       <c r="J26" s="3">
         <v>-900</v>
       </c>
       <c r="K26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-900</v>
       </c>
       <c r="J27" s="3">
         <v>-900</v>
       </c>
       <c r="K27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,8 +2143,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2092,14 +2152,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2107,12 +2167,12 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,17 +2342,17 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2291,117 +2360,123 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-900</v>
       </c>
       <c r="J33" s="3">
         <v>-900</v>
       </c>
       <c r="K33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-900</v>
       </c>
       <c r="J35" s="3">
         <v>-900</v>
       </c>
       <c r="K35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,17 +2756,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2688,20 +2774,20 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2712,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2729,31 +2815,34 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
-      </c>
-      <c r="J42" s="3">
-        <v>300</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -2762,29 +2851,29 @@
         <v>300</v>
       </c>
       <c r="M42" s="3">
+        <v>300</v>
+      </c>
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>400</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,20 +2916,20 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2850,8 +2942,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2874,7 +2969,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2883,14 +2978,14 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
@@ -2901,10 +2996,10 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2915,11 +3010,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,28 +3040,28 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2972,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3001,31 +3099,34 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
@@ -3034,34 +3135,34 @@
         <v>600</v>
       </c>
       <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,7 +3259,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3432,8 +3551,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3450,8 +3569,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,67 +3667,70 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>700</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
       </c>
       <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,23 +3794,24 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
@@ -3692,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3704,22 +3834,22 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3733,61 +3863,64 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
@@ -3796,122 +3929,128 @@
         <v>600</v>
       </c>
       <c r="W58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -3920,25 +4059,28 @@
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4020,7 +4165,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4044,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4070,11 +4215,14 @@
       <c r="W62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3" t="s">
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-60100</v>
       </c>
       <c r="H72" s="3">
         <v>-60100</v>
       </c>
       <c r="I72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-59500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-54000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-54100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-53900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>1300</v>
       </c>
       <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>500</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-900</v>
       </c>
       <c r="J81" s="3">
         <v>-900</v>
       </c>
       <c r="K81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>300</v>
+      </c>
+      <c r="T89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5752,8 +5972,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5936,20 +6165,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5960,26 +6189,26 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>100</v>
-      </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1000</v>
       </c>
       <c r="G100" s="3">
         <v>1000</v>
       </c>
       <c r="H100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6438,35 +6689,35 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>-400</v>
       </c>
       <c r="N102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6477,21 +6728,24 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
